--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1000" windowWidth="15000" windowHeight="10000" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="1000" yWindow="1000" windowWidth="15000" windowHeight="10000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CreateNewCustomer" sheetId="1" r:id="rId1"/>
@@ -12,20 +12,24 @@
     <sheet name="SalesOrderLines" sheetId="3" r:id="rId3"/>
     <sheet name="CreateNewPurchaseOrder" sheetId="4" r:id="rId4"/>
     <sheet name="PurchaseOrderLines" sheetId="5" r:id="rId5"/>
+    <sheet name="CreateEmployees" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>HR Manager</t>
+  </si>
   <si>
     <t>Elkhorn Airport</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -35,18 +39,36 @@
     <t>LineDiscount</t>
   </si>
   <si>
+    <t>1/31/1986</t>
+  </si>
+  <si>
     <t>3,250.00</t>
   </si>
   <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>2/12/1983</t>
+  </si>
+  <si>
     <t>Bicycle</t>
   </si>
   <si>
+    <t>JSMITH</t>
+  </si>
+  <si>
+    <t>SearchName</t>
+  </si>
+  <si>
     <t>Address</t>
   </si>
   <si>
     <t>Customer</t>
   </si>
   <si>
+    <t>John</t>
+  </si>
+  <si>
     <t>Inflectra</t>
   </si>
   <si>
@@ -56,12 +78,21 @@
     <t>UnitPriceExclTax</t>
   </si>
   <si>
+    <t>Parker</t>
+  </si>
+  <si>
     <t>QtyToInvoice</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
     <t>CustomerName</t>
   </si>
   <si>
+    <t>SPARKER</t>
+  </si>
+  <si>
     <t>NewCaSup</t>
   </si>
   <si>
@@ -77,6 +108,12 @@
     <t>US</t>
   </si>
   <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
     <t>Zip</t>
   </si>
   <si>
@@ -86,6 +123,9 @@
     <t>TaxGroupCode</t>
   </si>
   <si>
+    <t>LastName</t>
+  </si>
+  <si>
     <t>QtyToShip</t>
   </si>
   <si>
@@ -107,7 +147,16 @@
     <t>Front Wheel</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
     <t>CombineShipments</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
   <si>
     <t>Customer DOMESTIC</t>
@@ -159,9 +208,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +512,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="$A$1" sqref="$A$1:$A$2"/>
+      <selection activeCell="$A$2" sqref="$A$2:$A$2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -480,54 +529,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>20910</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -553,30 +602,30 @@
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="13.90625" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -612,30 +661,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -644,7 +693,7 @@
         <v>4000</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -658,7 +707,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -667,7 +716,7 @@
         <v>1000</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -694,7 +743,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection activeCell="$C$3" sqref="$C$3:$C$3"/>
     </sheetView>
   </sheetViews>
@@ -706,24 +755,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -755,18 +804,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -777,13 +826,113 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3">
         <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection/>
+  <printOptions/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="$A$3" sqref="$A$3:$A$3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>1234</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>4321</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
